--- a/municipal/ENG/Education/General Educational Institution/Samtkhe-Javakheti/Akhalkalaki.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/Samtkhe-Javakheti/Akhalkalaki.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social_Stat\სოციალური სტატ\General Educational Institution\Samtkhe-Javakheti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\General Educational Institution\Samtkhe-Javakheti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -74,9 +74,6 @@
     <t>Number of teachers, persons</t>
   </si>
   <si>
-    <t>Public and Private General Education Schools in Akhalkalaki</t>
-  </si>
-  <si>
     <t>(At the beginning of the school year)</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   <si>
     <t xml:space="preserve">Source: Ministry of Education and Science of Georgia.
 </t>
+  </si>
+  <si>
+    <t>Public and Private General Education Schools in Akhalkalaki municipality</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +603,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -629,7 +629,7 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -878,7 +878,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -895,7 +895,7 @@
     </row>
     <row r="8" spans="1:27" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
